--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="294">
   <si>
     <t>Property</t>
   </si>
@@ -574,10 +574,6 @@
 場所の説明。場所の検索や参照に役立つ。</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
-  </si>
-  <si>
     <t>Humans need additional information to verify a correct location has been identified.
 人間は、正しい場所が特定されたことを確認するために追加情報を必要とする。</t>
   </si>
@@ -856,7 +852,7 @@
 この場所が物理的に存在するもう一つの場所。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -2951,10 +2947,10 @@
         <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3018,7 +3014,7 @@
         <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3026,7 +3022,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3052,16 +3048,16 @@
         <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3089,11 +3085,11 @@
         <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3110,7 +3106,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3125,15 +3121,15 @@
         <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3156,16 +3152,16 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3191,14 +3187,14 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3215,7 +3211,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3230,15 +3226,15 @@
         <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3261,13 +3257,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3318,7 +3314,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3333,7 +3329,7 @@
         <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3341,7 +3337,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3364,19 +3360,19 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3425,7 +3421,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3440,7 +3436,7 @@
         <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3448,7 +3444,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3471,19 +3467,19 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -3508,14 +3504,14 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3547,15 +3543,15 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3578,17 +3574,17 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3637,7 +3633,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3652,7 +3648,7 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3660,7 +3656,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3686,10 +3682,10 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3740,7 +3736,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3763,7 +3759,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3792,7 +3788,7 @@
         <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>131</v>
@@ -3845,7 +3841,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3868,11 +3864,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3894,10 +3890,10 @@
         <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>131</v>
@@ -3952,7 +3948,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3975,7 +3971,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3998,16 +3994,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4057,7 +4053,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>82</v>
@@ -4072,7 +4068,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4080,7 +4076,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4103,16 +4099,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4162,7 +4158,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>82</v>
@@ -4177,7 +4173,7 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4185,7 +4181,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4208,16 +4204,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4267,7 +4263,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4282,7 +4278,7 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4290,7 +4286,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4313,19 +4309,19 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4374,7 +4370,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4389,7 +4385,7 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4397,7 +4393,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4420,19 +4416,19 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4481,7 +4477,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4496,7 +4492,7 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4504,7 +4500,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4527,16 +4523,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4586,7 +4582,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4601,7 +4597,7 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4609,7 +4605,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4635,10 +4631,10 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4689,7 +4685,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4712,7 +4708,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4741,7 +4737,7 @@
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>131</v>
@@ -4794,7 +4790,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4817,11 +4813,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4843,10 +4839,10 @@
         <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>131</v>
@@ -4901,7 +4897,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4924,7 +4920,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4950,13 +4946,13 @@
         <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4985,11 +4981,11 @@
         <v>150</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5021,7 +5017,7 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5029,7 +5025,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5052,13 +5048,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5109,7 +5105,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5124,7 +5120,7 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5132,7 +5128,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5155,13 +5151,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5212,7 +5208,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5227,7 +5223,7 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5235,7 +5231,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5258,13 +5254,13 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5315,7 +5311,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5330,7 +5326,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5338,7 +5334,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5364,10 +5360,10 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5418,7 +5414,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5441,7 +5437,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5464,19 +5460,19 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5525,7 +5521,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
